--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1349064.586557591</v>
+        <v>1346858.493151154</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604731</v>
+        <v>7094780.682604724</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.03010001174249</v>
+        <v>324.7573276225623</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.9268023686669</v>
+        <v>69.92680236866667</v>
       </c>
       <c r="S2" t="n">
-        <v>161.5416871497376</v>
+        <v>180.0198424776873</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>12.21404631994457</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>51.44421830258642</v>
+        <v>65.95263903154844</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015508</v>
+        <v>57.88099638015496</v>
       </c>
       <c r="S3" t="n">
         <v>159.0353604252219</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>117.6800649483559</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255584</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>19.72541525501845</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>118.948268258191</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>184.5456511825237</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1029,7 +1029,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>205.1478855987997</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>100.8330673628372</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>267.6706011535632</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0044783406138</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>113.6077241489896</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>109.989630558351</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1780,10 +1780,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>127.5688685082639</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>172.1983969857411</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>120.8605647322733</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>230.489821023359</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>264.4736234408105</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>183.8024440391908</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>160.8695265197231</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>77.31354443380401</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>32.52207646038642</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4746605491555</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.35991151980198</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>240.8213966086075</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>26.61423323933175</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,13 +3244,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>235.9955072668615</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880127</v>
+        <v>6.081513486880112</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>168.4225538535743</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V35" t="n">
         <v>292.2568421840891</v>
@@ -3439,10 +3439,10 @@
         <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379226</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400149</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
       </c>
       <c r="T37" t="n">
-        <v>82.16336697025886</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
         <v>250.716421919567</v>
@@ -3484,7 +3484,7 @@
         <v>216.6422270377822</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505452</v>
+        <v>141.7171482908898</v>
       </c>
       <c r="X37" t="n">
         <v>190.2142391029913</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.08151348688012</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
@@ -3566,10 +3566,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3661,22 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321665</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2595986282749</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.4367363840015</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S40" t="n">
-        <v>51.37052840189334</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901234</v>
+        <v>82.16336697025747</v>
       </c>
       <c r="U40" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V40" t="n">
         <v>216.6422270377822</v>
@@ -3724,7 +3724,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
         <v>183.089237066049</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880155</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213004</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
@@ -3803,7 +3803,7 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924235</v>
       </c>
       <c r="Y41" t="n">
         <v>350.7425223700078</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,13 +3901,13 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>87.26749728324924</v>
       </c>
       <c r="G43" t="n">
         <v>130.5303919729824</v>
@@ -3916,7 +3916,7 @@
         <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>60.8570041237923</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.796708348872959</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3958,7 +3958,7 @@
         <v>216.6422270377822</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505452</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>190.2142391029914</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880127</v>
+        <v>6.081513486880198</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213001</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
         <v>215.4997556728562</v>
@@ -4040,10 +4040,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>30.82173632476015</v>
       </c>
       <c r="E46" t="n">
-        <v>3.809622972511576</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368854</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379227</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4189,7 +4189,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V46" t="n">
         <v>216.6422270377822</v>
@@ -4198,7 +4198,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y46" t="n">
         <v>183.089237066049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1182.391541943306</v>
+        <v>712.979751469584</v>
       </c>
       <c r="C2" t="n">
-        <v>813.4290250028939</v>
+        <v>712.979751469584</v>
       </c>
       <c r="D2" t="n">
-        <v>455.1633263961434</v>
+        <v>712.979751469584</v>
       </c>
       <c r="E2" t="n">
-        <v>69.37507379789909</v>
+        <v>712.979751469584</v>
       </c>
       <c r="F2" t="n">
-        <v>62.42957304869562</v>
+        <v>706.0342507203806</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501634</v>
+        <v>377.9965460511256</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501634</v>
+        <v>48.25775485501643</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501634</v>
+        <v>48.25775485501643</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244782</v>
+        <v>143.3613405244789</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293501</v>
+        <v>406.6417666293511</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024636</v>
+        <v>785.5410436024654</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782771</v>
+        <v>1223.746040782773</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400862</v>
+        <v>1654.409655400864</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671745</v>
+        <v>2015.885456671749</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110678</v>
+        <v>2286.722307110682</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750817</v>
+        <v>2412.887742750821</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045093</v>
+        <v>2342.254609045097</v>
       </c>
       <c r="S2" t="n">
-        <v>2179.081187681722</v>
+        <v>2160.41638432016</v>
       </c>
       <c r="T2" t="n">
-        <v>2179.081187681722</v>
+        <v>2160.41638432016</v>
       </c>
       <c r="U2" t="n">
-        <v>1925.299529189231</v>
+        <v>2160.41638432016</v>
       </c>
       <c r="V2" t="n">
-        <v>1925.299529189231</v>
+        <v>1829.35349697659</v>
       </c>
       <c r="W2" t="n">
-        <v>1572.530873919117</v>
+        <v>1476.584841706476</v>
       </c>
       <c r="X2" t="n">
-        <v>1572.530873919117</v>
+        <v>1103.119083445396</v>
       </c>
       <c r="Y2" t="n">
-        <v>1182.391541943306</v>
+        <v>712.979751469584</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.9710606982837</v>
+        <v>692.9710606982883</v>
       </c>
       <c r="C3" t="n">
-        <v>692.9710606982837</v>
+        <v>518.5180314171613</v>
       </c>
       <c r="D3" t="n">
-        <v>544.0366510370325</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="E3" t="n">
-        <v>384.799196031577</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="F3" t="n">
-        <v>238.2646380584619</v>
+        <v>359.6460529188497</v>
       </c>
       <c r="G3" t="n">
-        <v>100.2216117263158</v>
+        <v>221.6030265867035</v>
       </c>
       <c r="H3" t="n">
-        <v>100.2216117263158</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501634</v>
+        <v>48.25775485501643</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501634</v>
+        <v>48.25775485501643</v>
       </c>
       <c r="K3" t="n">
-        <v>149.6153884757274</v>
+        <v>282.4696009334104</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519707</v>
+        <v>658.8007278096542</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664342</v>
+        <v>1149.940624122026</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987186</v>
+        <v>1669.78654544487</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.07411260221</v>
+        <v>2078.928325059896</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.44339364232</v>
+        <v>2390.297606100005</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750817</v>
+        <v>2412.887742750821</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841569</v>
+        <v>2354.422089841574</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634274</v>
+        <v>2193.780311634279</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.366029972575</v>
+        <v>1994.36602997258</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648783</v>
+        <v>1766.187661648787</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.03555341704</v>
+        <v>1531.035553417045</v>
       </c>
       <c r="W3" t="n">
-        <v>1276.798196688839</v>
+        <v>1276.798196688843</v>
       </c>
       <c r="X3" t="n">
-        <v>1068.946696483306</v>
+        <v>1068.94669648331</v>
       </c>
       <c r="Y3" t="n">
-        <v>861.1863977183518</v>
+        <v>861.1863977183564</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.0407786978487</v>
+        <v>429.4676519938546</v>
       </c>
       <c r="C4" t="n">
-        <v>631.0407786978487</v>
+        <v>260.5314690659476</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1720262247619</v>
+        <v>260.5314690659476</v>
       </c>
       <c r="E4" t="n">
-        <v>364.2589326423688</v>
+        <v>260.5314690659476</v>
       </c>
       <c r="F4" t="n">
-        <v>217.3689851444584</v>
+        <v>260.5314690659476</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501634</v>
+        <v>260.5314690659476</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501634</v>
+        <v>101.7923822515375</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501634</v>
+        <v>101.7923822515375</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501634</v>
+        <v>48.25775485501643</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461035</v>
+        <v>91.87143294461063</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384348</v>
+        <v>203.2083598384353</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534293</v>
+        <v>330.9866617534301</v>
       </c>
       <c r="N4" t="n">
-        <v>461.161297669286</v>
+        <v>461.161297669287</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984533</v>
+        <v>565.3823477984547</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978487</v>
+        <v>631.0407786978503</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978487</v>
+        <v>611.1161168240943</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978487</v>
+        <v>611.1161168240943</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978487</v>
+        <v>611.1161168240943</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978487</v>
+        <v>611.1161168240943</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978487</v>
+        <v>611.1161168240943</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978487</v>
+        <v>611.1161168240943</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978487</v>
+        <v>611.1161168240943</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0407786978487</v>
+        <v>611.1161168240943</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.0407786978487</v>
+        <v>611.1161168240943</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.703156598057</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>1483.703156598057</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="D5" t="n">
-        <v>1483.703156598057</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1138.210253911481</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1138.210253911481</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.210253911481</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.210253911481</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>727.224349121873</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>309.2605410200599</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>1528.349585887292</v>
+        <v>2153.11138992122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1138.210253911481</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,13 +4893,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>507.3364050629041</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>359.423311480511</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>212.5333639826006</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5030,7 +5030,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,16 +5042,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5069,7 +5069,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5118,10 +5118,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>673.382774659008</v>
+        <v>410.7144041584435</v>
       </c>
       <c r="C13" t="n">
-        <v>504.4465917311011</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D13" t="n">
-        <v>504.4465917311011</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E13" t="n">
-        <v>356.533498148708</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F13" t="n">
         <v>241.7782212305366</v>
@@ -5197,52 +5197,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953294</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442057</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1653.556945003904</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1364.454078129548</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1109.769589923661</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570251</v>
+        <v>820.3524198867003</v>
       </c>
       <c r="X13" t="n">
-        <v>673.382774659008</v>
+        <v>592.362868988683</v>
       </c>
       <c r="Y13" t="n">
-        <v>673.382774659008</v>
+        <v>592.3628689886832</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468568</v>
@@ -5355,19 +5355,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,22 +5385,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>578.4172407837247</v>
+        <v>529.525731183237</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,19 +5437,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1827.486023167063</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1605.719407736589</v>
+        <v>1590.719807198458</v>
       </c>
       <c r="U16" t="n">
-        <v>1316.616540862233</v>
+        <v>1301.616940324102</v>
       </c>
       <c r="V16" t="n">
-        <v>1316.616540862233</v>
+        <v>1046.932452118215</v>
       </c>
       <c r="W16" t="n">
-        <v>1027.199370825272</v>
+        <v>757.5152820812539</v>
       </c>
       <c r="X16" t="n">
-        <v>799.2098199272548</v>
+        <v>529.5257311832365</v>
       </c>
       <c r="Y16" t="n">
-        <v>578.4172407837247</v>
+        <v>529.525731183237</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360.5895482553302</v>
+        <v>679.6423705955731</v>
       </c>
       <c r="C19" t="n">
-        <v>360.5895482553302</v>
+        <v>510.7061876676662</v>
       </c>
       <c r="D19" t="n">
-        <v>360.5895482553302</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E19" t="n">
-        <v>360.5895482553302</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553302</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G19" t="n">
         <v>192.8867116300491</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1642.576203414082</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1353.473336539725</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.788848333838</v>
+        <v>1310.07296546736</v>
       </c>
       <c r="W19" t="n">
-        <v>809.3716782968777</v>
+        <v>1310.07296546736</v>
       </c>
       <c r="X19" t="n">
-        <v>581.3821273988603</v>
+        <v>1082.083414569343</v>
       </c>
       <c r="Y19" t="n">
-        <v>360.5895482553302</v>
+        <v>861.2908354258128</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468568</v>
@@ -5829,19 +5829,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,22 +5859,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>582.3166934139183</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3805104860114</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736756</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736755</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736755</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
         <v>1734.576850674229</v>
       </c>
       <c r="U22" t="n">
-        <v>1467.431776491593</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V22" t="n">
-        <v>1212.747288285706</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W22" t="n">
-        <v>1212.747288285706</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X22" t="n">
-        <v>984.7577373876883</v>
+        <v>1004.816158048361</v>
       </c>
       <c r="Y22" t="n">
-        <v>763.9651582441581</v>
+        <v>784.0235789048305</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157119</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>323.7721631878049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>173.6555237754692</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>173.6555237754692</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>173.6555237754692</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>173.6555237754692</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>173.6555237754692</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927023</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.55611102446</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.138940987499</v>
+        <v>874.5404723472665</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894818</v>
+        <v>646.5509214492491</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459517</v>
+        <v>425.758342305719</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,19 +6227,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.596327402151</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,28 +6303,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>278.5282561439486</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>278.5282561439487</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>128.411616731613</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>128.411616731613</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>128.411616731613</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6400,34 +6400,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>908.9588510157358</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>680.9693001177185</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>460.1767209741884</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,22 +6461,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3195.001976422504</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1209.806573290293</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783404</v>
+        <v>955.1220850844059</v>
       </c>
       <c r="W31" t="n">
-        <v>619.85598414138</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="X31" t="n">
-        <v>619.85598414138</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>399.0634049978498</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6695,40 +6695,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.619866888352</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N32" t="n">
-        <v>3051.398683947134</v>
+        <v>3163.468180669544</v>
       </c>
       <c r="O32" t="n">
-        <v>3554.371154826471</v>
+        <v>3666.440651548881</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6768,22 +6768,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>680.5797464134956</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>680.5797464134956</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570258</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>901.3723255570258</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>680.5797464134956</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G35" t="n">
         <v>352.4579211424552</v>
@@ -6932,46 +6932,46 @@
         <v>90.72827659571328</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J35" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>899.0396659381959</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L35" t="n">
-        <v>1350.073879186605</v>
+        <v>1471.8026539819</v>
       </c>
       <c r="M35" t="n">
-        <v>1883.605783858529</v>
+        <v>2005.334558653824</v>
       </c>
       <c r="N35" t="n">
-        <v>2430.384600917312</v>
+        <v>2582.164983310268</v>
       </c>
       <c r="O35" t="n">
-        <v>2933.357071796649</v>
+        <v>3462.129633639723</v>
       </c>
       <c r="P35" t="n">
-        <v>3646.712159243594</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752582</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W35" t="n">
         <v>3154.90602777756</v>
@@ -7005,13 +7005,13 @@
         <v>330.4576198076491</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402677</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781352</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J36" t="n">
         <v>178.26260317029</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>685.178347702795</v>
+        <v>746.6500690399591</v>
       </c>
       <c r="C37" t="n">
-        <v>552.0961206193788</v>
+        <v>613.5678419565429</v>
       </c>
       <c r="D37" t="n">
-        <v>437.8334370515341</v>
+        <v>499.305158388698</v>
       </c>
       <c r="E37" t="n">
-        <v>437.8334370515341</v>
+        <v>499.305158388698</v>
       </c>
       <c r="F37" t="n">
-        <v>326.7974453981145</v>
+        <v>388.2691667352784</v>
       </c>
       <c r="G37" t="n">
-        <v>194.9485646173242</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H37" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J37" t="n">
         <v>164.8484282497937</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L37" t="n">
         <v>755.676333893537</v>
@@ -7117,28 +7117,28 @@
         <v>2226.491462321465</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923484</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.683032594801</v>
+        <v>2070.659533992782</v>
       </c>
       <c r="T37" t="n">
-        <v>1933.689732624842</v>
+        <v>1884.746874406799</v>
       </c>
       <c r="U37" t="n">
-        <v>1680.440821594976</v>
+        <v>1631.497963376933</v>
       </c>
       <c r="V37" t="n">
-        <v>1461.61028923358</v>
+        <v>1412.667431015537</v>
       </c>
       <c r="W37" t="n">
-        <v>1208.04707504111</v>
+        <v>1269.518796378274</v>
       </c>
       <c r="X37" t="n">
-        <v>1015.911479987583</v>
+        <v>1077.383201324747</v>
       </c>
       <c r="Y37" t="n">
-        <v>830.972856688544</v>
+        <v>892.4445780257081</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
         <v>1779.154403914099</v>
@@ -7163,34 +7163,34 @@
         <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H38" t="n">
-        <v>90.7282765957133</v>
+        <v>90.72827659571338</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J38" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K38" t="n">
-        <v>964.0989216124499</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L38" t="n">
-        <v>1415.133134860859</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M38" t="n">
-        <v>1948.665039532783</v>
+        <v>2044.464146207993</v>
       </c>
       <c r="N38" t="n">
-        <v>2495.443856591566</v>
+        <v>3024.216418434639</v>
       </c>
       <c r="O38" t="n">
-        <v>2998.416327470903</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P38" t="n">
-        <v>3711.771414917848</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q38" t="n">
         <v>4170.249617426836</v>
@@ -7205,10 +7205,10 @@
         <v>3984.706179583937</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
         <v>3154.906027777561</v>
@@ -7217,7 +7217,7 @@
         <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J39" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K39" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M39" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N39" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O39" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q39" t="n">
         <v>2583.126759780831</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>686.201493787278</v>
+        <v>685.1783477027956</v>
       </c>
       <c r="C40" t="n">
-        <v>553.1192667038617</v>
+        <v>552.0961206193793</v>
       </c>
       <c r="D40" t="n">
-        <v>438.8565831360168</v>
+        <v>437.8334370515343</v>
       </c>
       <c r="E40" t="n">
-        <v>326.7974453981144</v>
+        <v>437.8334370515343</v>
       </c>
       <c r="F40" t="n">
-        <v>326.7974453981144</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="G40" t="n">
-        <v>194.9485646173241</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H40" t="n">
         <v>84.58533367967277</v>
@@ -7330,10 +7330,10 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L40" t="n">
         <v>755.6763338935366</v>
@@ -7357,25 +7357,25 @@
         <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2120.625538295308</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1934.712878709325</v>
+        <v>1933.689732624843</v>
       </c>
       <c r="U40" t="n">
-        <v>1681.463967679459</v>
+        <v>1680.440821594977</v>
       </c>
       <c r="V40" t="n">
-        <v>1462.633435318063</v>
+        <v>1461.610289233581</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.070221125593</v>
+        <v>1208.047075041111</v>
       </c>
       <c r="X40" t="n">
-        <v>1016.934626072067</v>
+        <v>1015.911479987584</v>
       </c>
       <c r="Y40" t="n">
-        <v>831.9960027730269</v>
+        <v>830.9728566885447</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529687</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571338</v>
       </c>
       <c r="I41" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
-        <v>309.3755894771504</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K41" t="n">
-        <v>964.0989216124499</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L41" t="n">
-        <v>1415.133134860859</v>
+        <v>1566.913517253815</v>
       </c>
       <c r="M41" t="n">
-        <v>1948.665039532783</v>
+        <v>2100.44542192574</v>
       </c>
       <c r="N41" t="n">
-        <v>2495.443856591566</v>
+        <v>2647.224238984521</v>
       </c>
       <c r="O41" t="n">
-        <v>2998.416327470903</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P41" t="n">
-        <v>3711.771414917848</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q41" t="n">
         <v>4170.249617426836</v>
@@ -7445,16 +7445,16 @@
         <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
         <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K42" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M42" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.024331240073</v>
+        <v>1704.024331240074</v>
       </c>
       <c r="O42" t="n">
         <v>2114.985610658128</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>633.4105315565972</v>
+        <v>835.8222022792395</v>
       </c>
       <c r="C43" t="n">
-        <v>500.328304473181</v>
+        <v>702.7399751958233</v>
       </c>
       <c r="D43" t="n">
-        <v>500.328304473181</v>
+        <v>588.4772916279783</v>
       </c>
       <c r="E43" t="n">
-        <v>388.2691667352786</v>
+        <v>476.4181538900758</v>
       </c>
       <c r="F43" t="n">
         <v>388.2691667352786</v>
@@ -7567,13 +7567,13 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497939</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935365</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7582,37 +7582,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2223.66650439331</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S43" t="n">
-        <v>2067.834576064628</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T43" t="n">
-        <v>1881.921916478644</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U43" t="n">
-        <v>1628.673005448778</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V43" t="n">
-        <v>1409.842473087382</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1156.279258894912</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="X43" t="n">
-        <v>964.1436638413857</v>
+        <v>1166.555334564028</v>
       </c>
       <c r="Y43" t="n">
-        <v>779.2050405423463</v>
+        <v>981.6167112649885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
         <v>1456.742661151839</v>
@@ -7634,49 +7634,49 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529687</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571328</v>
+        <v>90.72827659571338</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K44" t="n">
-        <v>774.6894873488977</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L44" t="n">
-        <v>1288.695457792721</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M44" t="n">
-        <v>2267.24576062255</v>
+        <v>2450.352956811727</v>
       </c>
       <c r="N44" t="n">
-        <v>2814.024577681332</v>
+        <v>3024.216418434639</v>
       </c>
       <c r="O44" t="n">
-        <v>3316.997048560669</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P44" t="n">
-        <v>3711.771414917847</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426835</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U44" t="n">
         <v>3767.029658702264</v>
@@ -7688,10 +7688,10 @@
         <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M45" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N45" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q45" t="n">
         <v>2583.126759780831</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>636.2354894847516</v>
+        <v>582.2589880867695</v>
       </c>
       <c r="C46" t="n">
-        <v>503.153262401336</v>
+        <v>449.1767610033532</v>
       </c>
       <c r="D46" t="n">
-        <v>503.153262401336</v>
+        <v>418.043694008646</v>
       </c>
       <c r="E46" t="n">
-        <v>499.305158388698</v>
+        <v>305.9845562707435</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352784</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544881</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L46" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7822,34 +7822,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2070.659533992782</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.746874406799</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.497963376933</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.667431015536</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1159.104216823067</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X46" t="n">
-        <v>966.9686217695399</v>
+        <v>912.9921203715578</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.0299984705006</v>
+        <v>728.0534970725184</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733603</v>
+        <v>62.50551572733585</v>
       </c>
       <c r="K3" t="n">
-        <v>130.2690628128991</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>75.8811135361716</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>295.4822118493993</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>229.1155640189935</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,19 +10115,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>314.5564971416988</v>
+        <v>135.6385654278985</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>294.7028561713648</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>30.35515918955718</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>191.322660872275</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>39.52483591330247</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>36.27386347318398</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>20.49076586975372</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>63.60783555092399</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>27.35822683245431</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>31.81332387394164</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23464,10 +23464,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>109.5593187178182</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>62.20015682317798</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>47.35055229042811</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>98.68838454389592</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>21.64782230046902</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7382147648024</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>41.90721134984639</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>18.96245366221424</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>19.03887597603411</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>133.5037317986418</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>105.0742887270137</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.4720686621353</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>45.39044159700536</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>122.0012397788806</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.14213605696648</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379227</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>101.8901660198645</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>109.3104337596554</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379226</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>102.9030806435027</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>101.8901660198659</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368854</v>
+        <v>22.65813445363622</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>50.64002803512857</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321665</v>
+        <v>82.29832040740642</v>
       </c>
       <c r="E46" t="n">
-        <v>107.1289233880118</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400149</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955764.826248531</v>
+        <v>955764.8262485309</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955764.826248531</v>
+        <v>955764.8262485309</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955764.826248531</v>
+        <v>955764.8262485311</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185697</v>
@@ -26323,10 +26323,10 @@
         <v>476498.1442643799</v>
       </c>
       <c r="F2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="G2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="H2" t="n">
         <v>476498.1442643797</v>
@@ -26338,22 +26338,22 @@
         <v>476498.1442643797</v>
       </c>
       <c r="K2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="L2" t="n">
-        <v>476498.1442643796</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="M2" t="n">
-        <v>488683.9876009098</v>
+        <v>488683.98760091</v>
       </c>
       <c r="N2" t="n">
-        <v>488683.9876009098</v>
+        <v>488683.9876009097</v>
       </c>
       <c r="O2" t="n">
-        <v>488683.9876009098</v>
+        <v>488683.9876009094</v>
       </c>
       <c r="P2" t="n">
-        <v>488683.9876009098</v>
+        <v>488683.9876009095</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.142839428</v>
+        <v>507203.1428394293</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417927</v>
+        <v>78665.28217417806</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410737</v>
+        <v>157829.400141074</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022144</v>
+        <v>18289.94367022111</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547195</v>
+        <v>232017.7717547192</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="J4" t="n">
+        <v>28561.83935289578</v>
+      </c>
+      <c r="K4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="K4" t="n">
-        <v>28561.83935289575</v>
-      </c>
       <c r="L4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501859</v>
+        <v>55718.30868501861</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501862</v>
+        <v>55718.30868501858</v>
       </c>
       <c r="O4" t="n">
         <v>55718.30868501857</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501859</v>
+        <v>55718.30868501858</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.6887113344</v>
+        <v>77204.68871133449</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
         <v>91026.04982123678</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-323800.5413869123</v>
+        <v>-323800.541386913</v>
       </c>
       <c r="C6" t="n">
-        <v>121178.2862179477</v>
+        <v>121178.2862179491</v>
       </c>
       <c r="D6" t="n">
         <v>199843.5683921269</v>
       </c>
       <c r="E6" t="n">
-        <v>-375824.6273356362</v>
+        <v>-375891.8228258622</v>
       </c>
       <c r="F6" t="n">
-        <v>351552.7866577704</v>
+        <v>351485.5911675447</v>
       </c>
       <c r="G6" t="n">
-        <v>351552.7866577704</v>
+        <v>351485.5911675447</v>
       </c>
       <c r="H6" t="n">
-        <v>351552.7866577703</v>
+        <v>351485.5911675445</v>
       </c>
       <c r="I6" t="n">
-        <v>351552.7866577703</v>
+        <v>351485.5911675447</v>
       </c>
       <c r="J6" t="n">
-        <v>193723.3865166966</v>
+        <v>193656.1910264705</v>
       </c>
       <c r="K6" t="n">
-        <v>333262.8429875489</v>
+        <v>333195.6474973236</v>
       </c>
       <c r="L6" t="n">
-        <v>351552.7866577702</v>
+        <v>351485.5911675445</v>
       </c>
       <c r="M6" t="n">
-        <v>218090.8379064795</v>
+        <v>218074.4167634894</v>
       </c>
       <c r="N6" t="n">
-        <v>341939.6290946543</v>
+        <v>341923.2079516641</v>
       </c>
       <c r="O6" t="n">
-        <v>341939.6290946545</v>
+        <v>341923.2079516638</v>
       </c>
       <c r="P6" t="n">
-        <v>341939.6290946545</v>
+        <v>341923.2079516639</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O2" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688988</v>
+        <v>316.5685789688997</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877042</v>
+        <v>603.2219356877054</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,7 +26820,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="N4" t="n">
         <v>1057.31667099591</v>
@@ -26829,7 +26829,7 @@
         <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688988</v>
+        <v>316.5685789688997</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818783</v>
+        <v>61.17508524818694</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877042</v>
+        <v>603.2219356877054</v>
       </c>
       <c r="C4" t="n">
-        <v>71.0653370668515</v>
+        <v>71.06533706685025</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877042</v>
+        <v>603.2219356877054</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668515</v>
+        <v>71.06533706685025</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877042</v>
+        <v>603.2219356877054</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668515</v>
+        <v>71.06533706685025</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>89.27277238918015</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208643</v>
+        <v>161.4125322208642</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>18.47815532794985</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>135.2310192446942</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14.50842072896209</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>30.93540806985641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>138.2831165792399</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255596</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739067</v>
+        <v>18.63477257237209</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365109</v>
+        <v>151.6253882365108</v>
       </c>
       <c r="S4" t="n">
         <v>214.0680412192119</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>262.9821018140707</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>222.3303945591877</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>81.37511273779128</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>223.0897054015199</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>102.0604995249059</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>10.30532391843713</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.168426311850774e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-6.25277607468888e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392557</v>
+        <v>1.272637503392561</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161903</v>
+        <v>13.03339883161907</v>
       </c>
       <c r="I2" t="n">
-        <v>49.0633573495416</v>
+        <v>49.06335734954175</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035641</v>
+        <v>108.0135173035644</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221711</v>
+        <v>161.8842628221716</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166211</v>
+        <v>200.8317428166217</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175785</v>
+        <v>223.4640100175791</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240926</v>
+        <v>227.0798913240933</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497329</v>
+        <v>214.4251021497335</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847291</v>
+        <v>183.0068637847296</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944831</v>
+        <v>137.4305331944835</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248278</v>
+        <v>79.94231557248301</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855792</v>
+        <v>29.00022710855801</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100921</v>
+        <v>5.570970671100937</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714045</v>
+        <v>0.1018110002714048</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859333</v>
+        <v>0.6809210943859353</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674672</v>
+        <v>6.576264253674691</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986657</v>
+        <v>23.44399381986663</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933066</v>
+        <v>64.33211093933085</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631882</v>
+        <v>109.9538242631885</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665598</v>
+        <v>147.8464858665602</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380498</v>
+        <v>172.5298755380503</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648748</v>
+        <v>177.0962279648753</v>
       </c>
       <c r="O3" t="n">
-        <v>162.008450031376</v>
+        <v>162.0084500313764</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674332</v>
+        <v>130.0260640674336</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.9189803991588</v>
+        <v>86.91898039915904</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248805</v>
+        <v>42.27683777248817</v>
       </c>
       <c r="S3" t="n">
-        <v>12.6478106786159</v>
+        <v>12.64781067861594</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739791</v>
+        <v>2.744589849739799</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012721</v>
+        <v>0.04479744042012734</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.570861371911129</v>
+        <v>0.5708613719111305</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173495</v>
+        <v>5.07547656117351</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801832</v>
+        <v>17.16735834801837</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411681</v>
+        <v>40.35989899411693</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840206</v>
+        <v>66.32371211840224</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667821</v>
+        <v>84.87151705667846</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148723</v>
+        <v>89.48511487148748</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890946</v>
+        <v>87.35735884890971</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522033</v>
+        <v>80.68866009522056</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823323</v>
+        <v>69.04308810823343</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430372</v>
+        <v>47.80185542430385</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065857</v>
+        <v>25.66800314065865</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760307</v>
+        <v>9.948556817760336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711187</v>
+        <v>2.439134952711194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333434</v>
+        <v>0.03113789301333443</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895163</v>
+        <v>96.06422794895192</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483553</v>
+        <v>265.9398243483557</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970844</v>
+        <v>382.7265423970849</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831382</v>
+        <v>442.6313102831389</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394859</v>
+        <v>435.0137521394865</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907915</v>
+        <v>365.1270719907921</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009422</v>
+        <v>273.5725762009427</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799383</v>
+        <v>127.4398339799387</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>102.3814481017283</v>
+        <v>236.5776223014081</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901448</v>
+        <v>380.1324513901452</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660314</v>
+        <v>496.100905366032</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250951</v>
+        <v>525.0968902250955</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636611</v>
+        <v>413.2745248636616</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930401</v>
+        <v>314.5144252930405</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489864</v>
+        <v>22.81831984930911</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.0542202925192</v>
+        <v>44.05422029251939</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169944</v>
+        <v>112.4615423169946</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333278</v>
+        <v>129.0689918333281</v>
       </c>
       <c r="N4" t="n">
-        <v>131.489531228138</v>
+        <v>131.4895312281383</v>
       </c>
       <c r="O4" t="n">
-        <v>105.27378800926</v>
+        <v>105.2737880092602</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312672</v>
+        <v>66.32164737312692</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130656</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934858</v>
       </c>
       <c r="N13" t="n">
         <v>344.8569461675401</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36054,7 +36054,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36279,25 +36279,25 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>751.0723262417313</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>737.1685649072126</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>674.9245771183487</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>713.3184833610707</v>
+        <v>534.4005516472702</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>631.8941427267653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>582.6569946024687</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911208</v>
+        <v>81.07383289911206</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>528.5139474276755</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>578.445951743529</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911206</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562439</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>227.0608644418965</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>476.0808802620857</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911202</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L43" t="n">
         <v>355.2527884562439</v>
@@ -37950,13 +37950,13 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P43" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>519.1979499432562</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>579.6600622453656</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597712</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911205</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L46" t="n">
         <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
